--- a/biology/Botanique/Victor_Lemoine_(rose)/Victor_Lemoine_(rose).xlsx
+++ b/biology/Botanique/Victor_Lemoine_(rose)/Victor_Lemoine_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Victor Lemoine' est un cultivar de rosier obtenu en 1888[1] par le rosiériste français Louis Lévêque. Il rend hommage à un fameux pépiniériste de l'époque, Victor Lemoine (1823-1911).
+'Victor Lemoine' est un cultivar de rosier obtenu en 1888 par le rosiériste français Louis Lévêque. Il rend hommage à un fameux pépiniériste de l'époque, Victor Lemoine (1823-1911).
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un hybride remontant présentant un buisson au feuillage dense et vert anglais pouvant atteindre 120 cm. Ses fleurs sont grosses (10 cm), pleines et doubles (17-25 pétales) en forme de coupe. Elles sont de couleur rouge franc avec des nuances plus foncées, d'un coloris plus pâle au fur et à mesure. La floraison est légèrement remontante. Cette variété résiste à des températures hivernales de -15° C/-20° C[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un hybride remontant présentant un buisson au feuillage dense et vert anglais pouvant atteindre 120 cm. Ses fleurs sont grosses (10 cm), pleines et doubles (17-25 pétales) en forme de coupe. Elles sont de couleur rouge franc avec des nuances plus foncées, d'un coloris plus pâle au fur et à mesure. La floraison est légèrement remontante. Cette variété résiste à des températures hivernales de -15° C/-20° C. 
 Ce rosier était à la mode à la belle époque. On peut l'admirer notamment à la roseraie de Sangerhausen en Allemagne.  
 </t>
         </is>
